--- a/biology/Médecine/Seraphima_Schachowa/Seraphima_Schachowa.xlsx
+++ b/biology/Médecine/Seraphima_Schachowa/Seraphima_Schachowa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Seraphima Schachowa est une médecin et histologiste ukrainienne, née en 1854 à Ekaterinoslav en Ukraine et morte après 1910.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1871 à 1873, elle effectue des études à l'université de Zurich où elle devient bachelière en médecine (BM) en 1873[1]. Elle passe sa thèse de médecine à l'université de Berne[2] : elle y décrit le segment du néphron intercalé entre le tube contourné proximal et l’anse de Henle, segment parfois nommé « tube spiral »[3] ou « tube de Schachowa »[4],[5]. 
-Elle retourne en Ukraine en 1877 où elle passe un examen d'État en médecine en 1878[2]. En 1900, elle pratique la médecine à Kharkov[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1871 à 1873, elle effectue des études à l'université de Zurich où elle devient bachelière en médecine (BM) en 1873. Elle passe sa thèse de médecine à l'université de Berne : elle y décrit le segment du néphron intercalé entre le tube contourné proximal et l’anse de Henle, segment parfois nommé « tube spiral » ou « tube de Schachowa »,. 
+Elle retourne en Ukraine en 1877 où elle passe un examen d'État en médecine en 1878. En 1900, elle pratique la médecine à Kharkov.
 </t>
         </is>
       </c>
